--- a/Code/Results/Cases/Case_2_90/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_90/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.999607606229362</v>
+        <v>1.03365660355876</v>
       </c>
       <c r="D2">
-        <v>1.020752303672802</v>
+        <v>1.040417923851197</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.025003747145063</v>
+        <v>1.049332497029906</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044168229913736</v>
+        <v>1.035341824151251</v>
       </c>
       <c r="J2">
-        <v>1.021800060065203</v>
+        <v>1.03878013117511</v>
       </c>
       <c r="K2">
-        <v>1.031929902716152</v>
+        <v>1.043200329619352</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.036125392824584</v>
+        <v>1.052089849436717</v>
       </c>
       <c r="N2">
-        <v>1.010891050751583</v>
+        <v>1.016844914036938</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.0048720087595</v>
+        <v>1.034752827419709</v>
       </c>
       <c r="D3">
-        <v>1.024577178559172</v>
+        <v>1.041231920688309</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.029393979859887</v>
+        <v>1.050288928090319</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045421503157304</v>
+        <v>1.035536020761288</v>
       </c>
       <c r="J3">
-        <v>1.025230733335436</v>
+        <v>1.039518416686534</v>
       </c>
       <c r="K3">
-        <v>1.034904958398079</v>
+        <v>1.043824736267942</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.039664081390484</v>
+        <v>1.052858132917898</v>
       </c>
       <c r="N3">
-        <v>1.012062649813859</v>
+        <v>1.01709382557943</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008200342005259</v>
+        <v>1.035462174496043</v>
       </c>
       <c r="D4">
-        <v>1.02699822156524</v>
+        <v>1.041758513708321</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.032174933870666</v>
+        <v>1.050907988644583</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046203185675215</v>
+        <v>1.035660306494792</v>
       </c>
       <c r="J4">
-        <v>1.027396583097228</v>
+        <v>1.039995609622565</v>
       </c>
       <c r="K4">
-        <v>1.036781365745979</v>
+        <v>1.044228002413924</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.041899945490155</v>
+        <v>1.053354828104865</v>
       </c>
       <c r="N4">
-        <v>1.012801841692493</v>
+        <v>1.017254599725252</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009581639409088</v>
+        <v>1.035760388538861</v>
       </c>
       <c r="D5">
-        <v>1.028003586331159</v>
+        <v>1.04197986482503</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.033330260489123</v>
+        <v>1.051168285730087</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04652498164311</v>
+        <v>1.035712227440821</v>
       </c>
       <c r="J5">
-        <v>1.028294638836329</v>
+        <v>1.04019609526365</v>
       </c>
       <c r="K5">
-        <v>1.037558953116346</v>
+        <v>1.044397351682575</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.042827450429214</v>
+        <v>1.053563534147192</v>
       </c>
       <c r="N5">
-        <v>1.013108226123806</v>
+        <v>1.017322120065882</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009812534949052</v>
+        <v>1.035810460268548</v>
       </c>
       <c r="D6">
-        <v>1.028171674908983</v>
+        <v>1.042017028960716</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.033523451457088</v>
+        <v>1.051211993325459</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046578617618188</v>
+        <v>1.035720925910506</v>
       </c>
       <c r="J6">
-        <v>1.028444708302563</v>
+        <v>1.04022975027854</v>
       </c>
       <c r="K6">
-        <v>1.037688864515666</v>
+        <v>1.044425775382913</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.042982465055899</v>
+        <v>1.053598570665775</v>
       </c>
       <c r="N6">
-        <v>1.013159417405597</v>
+        <v>1.017333452972635</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008218868462952</v>
+        <v>1.035466159228265</v>
       </c>
       <c r="D7">
-        <v>1.027011703590697</v>
+        <v>1.041761471525731</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.03219042488659</v>
+        <v>1.050911466574517</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046207512104079</v>
+        <v>1.035661001557138</v>
       </c>
       <c r="J7">
-        <v>1.027408631352948</v>
+        <v>1.039998289017749</v>
       </c>
       <c r="K7">
-        <v>1.03679179962364</v>
+        <v>1.044230265989762</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.041912387205189</v>
+        <v>1.053357617256698</v>
       </c>
       <c r="N7">
-        <v>1.012805952595172</v>
+        <v>1.017255502207028</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001403376446417</v>
+        <v>1.03402707432553</v>
       </c>
       <c r="D8">
-        <v>1.022056387447934</v>
+        <v>1.040693041899858</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.026500164583662</v>
+        <v>1.049655688676398</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044597953936386</v>
+        <v>1.035407737857265</v>
       </c>
       <c r="J8">
-        <v>1.022970947911753</v>
+        <v>1.039029747332365</v>
       </c>
       <c r="K8">
-        <v>1.032945654662993</v>
+        <v>1.04341150936168</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.037332751105103</v>
+        <v>1.052349584431731</v>
       </c>
       <c r="N8">
-        <v>1.011291010356743</v>
+        <v>1.016929094486636</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9887589332630667</v>
+        <v>1.031491330769042</v>
       </c>
       <c r="D9">
-        <v>1.012889365036052</v>
+        <v>1.0388094547351</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.015989391901231</v>
+        <v>1.047444288267368</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041528694824427</v>
+        <v>1.034950952417049</v>
       </c>
       <c r="J9">
-        <v>1.014714984292161</v>
+        <v>1.037319018160429</v>
       </c>
       <c r="K9">
-        <v>1.025776726249109</v>
+        <v>1.041962894865205</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.02882827165406</v>
+        <v>1.05056997975612</v>
       </c>
       <c r="N9">
-        <v>1.008469169841558</v>
+        <v>1.016351718765317</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9798472344532175</v>
+        <v>1.0298008742181</v>
       </c>
       <c r="D10">
-        <v>1.00645195100713</v>
+        <v>1.037553166176707</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.008618312940569</v>
+        <v>1.04597101217686</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039312501099457</v>
+        <v>1.034639378644349</v>
       </c>
       <c r="J10">
-        <v>1.008883885561002</v>
+        <v>1.036175819820159</v>
       </c>
       <c r="K10">
-        <v>1.020705682498138</v>
+        <v>1.040993224634334</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.022833685257365</v>
+        <v>1.049381359725967</v>
       </c>
       <c r="N10">
-        <v>1.00647423883427</v>
+        <v>1.015965324762559</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9758603276913618</v>
+        <v>1.029068888802404</v>
       </c>
       <c r="D11">
-        <v>1.00357889021167</v>
+        <v>1.0370090504436</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.005330740582395</v>
+        <v>1.045333306211328</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038309238810906</v>
+        <v>1.034502793572001</v>
       </c>
       <c r="J11">
-        <v>1.00627300684101</v>
+        <v>1.035680158302826</v>
       </c>
       <c r="K11">
-        <v>1.018433628041111</v>
+        <v>1.040572417307385</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.020152822302584</v>
+        <v>1.048866151035911</v>
       </c>
       <c r="N11">
-        <v>1.005580653294631</v>
+        <v>1.015797662312871</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9743588844696971</v>
+        <v>1.028796995009158</v>
       </c>
       <c r="D12">
-        <v>1.002498073773931</v>
+        <v>1.036806921725546</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.004094302821158</v>
+        <v>1.045096468932327</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037929717836253</v>
+        <v>1.034451808767472</v>
       </c>
       <c r="J12">
-        <v>1.0052895108208</v>
+        <v>1.035495949863131</v>
       </c>
       <c r="K12">
-        <v>1.01757757061517</v>
+        <v>1.040415970525158</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.019143480591695</v>
+        <v>1.048674700329185</v>
       </c>
       <c r="N12">
-        <v>1.005244002474045</v>
+        <v>1.015735332255992</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9746818999712351</v>
+        <v>1.028855317246384</v>
       </c>
       <c r="D13">
-        <v>1.002730542600551</v>
+        <v>1.036850279917832</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.004360229740129</v>
+        <v>1.045147269740479</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038011442261642</v>
+        <v>1.034462756538898</v>
       </c>
       <c r="J13">
-        <v>1.005501107283837</v>
+        <v>1.03553546762176</v>
       </c>
       <c r="K13">
-        <v>1.017761757257064</v>
+        <v>1.040449535234369</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.019360613780733</v>
+        <v>1.048715770740392</v>
       </c>
       <c r="N13">
-        <v>1.005316433850215</v>
+        <v>1.015748704651866</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.975736644533674</v>
+        <v>1.029046414018527</v>
       </c>
       <c r="D14">
-        <v>1.00348983239442</v>
+        <v>1.036992342825113</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.005228853491955</v>
+        <v>1.045313728450518</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038278009404861</v>
+        <v>1.03449858427241</v>
       </c>
       <c r="J14">
-        <v>1.006191994979489</v>
+        <v>1.035664933569389</v>
       </c>
       <c r="K14">
-        <v>1.018363117216914</v>
+        <v>1.040559488227259</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.020069670800455</v>
+        <v>1.048850327276939</v>
       </c>
       <c r="N14">
-        <v>1.005552923780912</v>
+        <v>1.015792511167055</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9763837468906246</v>
+        <v>1.029164154781081</v>
       </c>
       <c r="D15">
-        <v>1.003955825163678</v>
+        <v>1.037079869841832</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.005761987799405</v>
+        <v>1.045416293814308</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038441330901738</v>
+        <v>1.034520625661174</v>
       </c>
       <c r="J15">
-        <v>1.006615833846626</v>
+        <v>1.035744688863793</v>
       </c>
       <c r="K15">
-        <v>1.018732008924625</v>
+        <v>1.040627215318869</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.020504725115311</v>
+        <v>1.048933221501004</v>
       </c>
       <c r="N15">
-        <v>1.005697997628389</v>
+        <v>1.015819494816524</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9801090265523985</v>
+        <v>1.029849453469988</v>
       </c>
       <c r="D16">
-        <v>1.006640758374985</v>
+        <v>1.037589274537779</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.008834404837325</v>
+        <v>1.046013339533867</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039378139174149</v>
+        <v>1.034648408136846</v>
       </c>
       <c r="J16">
-        <v>1.009055284283274</v>
+        <v>1.036208701553042</v>
       </c>
       <c r="K16">
-        <v>1.020854809642846</v>
+        <v>1.041021132564893</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.023009747943419</v>
+        <v>1.049415541308217</v>
       </c>
       <c r="N16">
-        <v>1.006532894206866</v>
+        <v>1.015976444567515</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9824106314377266</v>
+        <v>1.030279320885986</v>
       </c>
       <c r="D17">
-        <v>1.008301499220709</v>
+        <v>1.037908774848606</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.010735386216628</v>
+        <v>1.046387912883178</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039953881606363</v>
+        <v>1.034728115256506</v>
       </c>
       <c r="J17">
-        <v>1.010561937096951</v>
+        <v>1.03649959055838</v>
       </c>
       <c r="K17">
-        <v>1.02216552205633</v>
+        <v>1.041267976517769</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.02455776755423</v>
+        <v>1.049717946407395</v>
       </c>
       <c r="N17">
-        <v>1.00704845564878</v>
+        <v>1.016074800962513</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9837408530571884</v>
+        <v>1.030530054698378</v>
       </c>
       <c r="D18">
-        <v>1.009261975657631</v>
+        <v>1.038095120977551</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.01183501234649</v>
+        <v>1.046606417580619</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040285514397625</v>
+        <v>1.034774445781127</v>
       </c>
       <c r="J18">
-        <v>1.011432503155692</v>
+        <v>1.036669198576869</v>
       </c>
       <c r="K18">
-        <v>1.022922727814842</v>
+        <v>1.041411866323969</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.025452537936012</v>
+        <v>1.04989428319701</v>
       </c>
       <c r="N18">
-        <v>1.007346320576613</v>
+        <v>1.01613213668732</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.984192381048431</v>
+        <v>1.030615548375992</v>
       </c>
       <c r="D19">
-        <v>1.009588103865815</v>
+        <v>1.038158657978274</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.01220842441307</v>
+        <v>1.046680925828802</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040397891210353</v>
+        <v>1.034790215931917</v>
       </c>
       <c r="J19">
-        <v>1.011727968902759</v>
+        <v>1.036727019912168</v>
       </c>
       <c r="K19">
-        <v>1.023179694501924</v>
+        <v>1.041460913745376</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.025756268780115</v>
+        <v>1.049954400833027</v>
       </c>
       <c r="N19">
-        <v>1.007447408419356</v>
+        <v>1.016151680937742</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9821649686384694</v>
+        <v>1.030233200246141</v>
       </c>
       <c r="D20">
-        <v>1.008124171556221</v>
+        <v>1.03787449683104</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.010532385044405</v>
+        <v>1.046347722389151</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039892545230086</v>
+        <v>1.034719580119043</v>
       </c>
       <c r="J20">
-        <v>1.010401145157508</v>
+        <v>1.036468387398879</v>
       </c>
       <c r="K20">
-        <v>1.022025655771938</v>
+        <v>1.04124150181606</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.024392529318304</v>
+        <v>1.049685506475168</v>
       </c>
       <c r="N20">
-        <v>1.006993437736952</v>
+        <v>1.016064251758036</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9754266261251332</v>
+        <v>1.028990140838951</v>
       </c>
       <c r="D21">
-        <v>1.00326662334307</v>
+        <v>1.036950509386921</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.00497349493739</v>
+        <v>1.045264709538396</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038199704136024</v>
+        <v>1.034488040826588</v>
       </c>
       <c r="J21">
-        <v>1.005988930565215</v>
+        <v>1.035626811772515</v>
       </c>
       <c r="K21">
-        <v>1.018186371701886</v>
+        <v>1.040527113681089</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.019861251598762</v>
+        <v>1.048810705917637</v>
       </c>
       <c r="N21">
-        <v>1.005483416263834</v>
+        <v>1.015779612696398</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9710704699985125</v>
+        <v>1.028208569122662</v>
       </c>
       <c r="D22">
-        <v>1.000133179751777</v>
+        <v>1.036369446771681</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.001389459671741</v>
+        <v>1.044583979614691</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037095458248873</v>
+        <v>1.034341010570956</v>
       </c>
       <c r="J22">
-        <v>1.003135097820864</v>
+        <v>1.035097114529385</v>
       </c>
       <c r="K22">
-        <v>1.015701998786897</v>
+        <v>1.0400771383627</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.016933441256076</v>
+        <v>1.048260225574171</v>
       </c>
       <c r="N22">
-        <v>1.004506474023738</v>
+        <v>1.015600343589526</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9733915366381531</v>
+        <v>1.028622896390575</v>
       </c>
       <c r="D23">
-        <v>1.001802069612722</v>
+        <v>1.036677489863368</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.003298171000947</v>
+        <v>1.044944828093025</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03768473106613</v>
+        <v>1.034419091717902</v>
       </c>
       <c r="J23">
-        <v>1.004655802250991</v>
+        <v>1.035377970694028</v>
       </c>
       <c r="K23">
-        <v>1.017025925545436</v>
+        <v>1.040315755655013</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.018493268570889</v>
+        <v>1.048552089041011</v>
       </c>
       <c r="N23">
-        <v>1.005027072441748</v>
+        <v>1.015695406460849</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9822760108925822</v>
+        <v>1.030254040179531</v>
       </c>
       <c r="D24">
-        <v>1.008204323596149</v>
+        <v>1.037889985631781</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.010624140852825</v>
+        <v>1.046365882674108</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039920273417825</v>
+        <v>1.034723437278591</v>
       </c>
       <c r="J24">
-        <v>1.010473825517265</v>
+        <v>1.036482486956857</v>
       </c>
       <c r="K24">
-        <v>1.02208887786902</v>
+        <v>1.04125346487245</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.024467218536101</v>
+        <v>1.04970016484162</v>
       </c>
       <c r="N24">
-        <v>1.007018306761569</v>
+        <v>1.016069018594149</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9921084700166333</v>
+        <v>1.032146871912103</v>
       </c>
       <c r="D25">
-        <v>1.015314120958997</v>
+        <v>1.039296508448631</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.018767811018534</v>
+        <v>1.048015815250673</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042351097135006</v>
+        <v>1.035070285850322</v>
       </c>
       <c r="J25">
-        <v>1.016904365878528</v>
+        <v>1.037761760746619</v>
       </c>
       <c r="K25">
-        <v>1.027679266968065</v>
+        <v>1.042338089592698</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.031081602998358</v>
+        <v>1.051030442176041</v>
       </c>
       <c r="N25">
-        <v>1.0092178432892</v>
+        <v>1.016501244876122</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_90/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_90/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03365660355876</v>
+        <v>0.9996076062293612</v>
       </c>
       <c r="D2">
-        <v>1.040417923851197</v>
+        <v>1.020752303672801</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.049332497029906</v>
+        <v>1.025003747145062</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035341824151251</v>
+        <v>1.044168229913736</v>
       </c>
       <c r="J2">
-        <v>1.03878013117511</v>
+        <v>1.021800060065203</v>
       </c>
       <c r="K2">
-        <v>1.043200329619352</v>
+        <v>1.031929902716152</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.052089849436717</v>
+        <v>1.036125392824583</v>
       </c>
       <c r="N2">
-        <v>1.016844914036938</v>
+        <v>1.010891050751583</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034752827419709</v>
+        <v>1.0048720087595</v>
       </c>
       <c r="D3">
-        <v>1.041231920688309</v>
+        <v>1.024577178559172</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.050288928090319</v>
+        <v>1.029393979859886</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035536020761288</v>
+        <v>1.045421503157304</v>
       </c>
       <c r="J3">
-        <v>1.039518416686534</v>
+        <v>1.025230733335436</v>
       </c>
       <c r="K3">
-        <v>1.043824736267942</v>
+        <v>1.034904958398079</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.052858132917898</v>
+        <v>1.039664081390484</v>
       </c>
       <c r="N3">
-        <v>1.01709382557943</v>
+        <v>1.012062649813859</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035462174496043</v>
+        <v>1.008200342005259</v>
       </c>
       <c r="D4">
-        <v>1.041758513708321</v>
+        <v>1.02699822156524</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.050907988644583</v>
+        <v>1.032174933870666</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035660306494792</v>
+        <v>1.046203185675215</v>
       </c>
       <c r="J4">
-        <v>1.039995609622565</v>
+        <v>1.027396583097228</v>
       </c>
       <c r="K4">
-        <v>1.044228002413924</v>
+        <v>1.036781365745979</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.053354828104865</v>
+        <v>1.041899945490155</v>
       </c>
       <c r="N4">
-        <v>1.017254599725252</v>
+        <v>1.012801841692493</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035760388538861</v>
+        <v>1.009581639409088</v>
       </c>
       <c r="D5">
-        <v>1.04197986482503</v>
+        <v>1.028003586331159</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.051168285730087</v>
+        <v>1.033330260489122</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035712227440821</v>
+        <v>1.04652498164311</v>
       </c>
       <c r="J5">
-        <v>1.04019609526365</v>
+        <v>1.028294638836329</v>
       </c>
       <c r="K5">
-        <v>1.044397351682575</v>
+        <v>1.037558953116345</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.053563534147192</v>
+        <v>1.042827450429213</v>
       </c>
       <c r="N5">
-        <v>1.017322120065882</v>
+        <v>1.013108226123806</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035810460268548</v>
+        <v>1.009812534949052</v>
       </c>
       <c r="D6">
-        <v>1.042017028960716</v>
+        <v>1.028171674908982</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.051211993325459</v>
+        <v>1.033523451457088</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035720925910506</v>
+        <v>1.046578617618187</v>
       </c>
       <c r="J6">
-        <v>1.04022975027854</v>
+        <v>1.028444708302563</v>
       </c>
       <c r="K6">
-        <v>1.044425775382913</v>
+        <v>1.037688864515665</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.053598570665775</v>
+        <v>1.042982465055898</v>
       </c>
       <c r="N6">
-        <v>1.017333452972635</v>
+        <v>1.013159417405597</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035466159228265</v>
+        <v>1.008218868462952</v>
       </c>
       <c r="D7">
-        <v>1.041761471525731</v>
+        <v>1.027011703590698</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.050911466574517</v>
+        <v>1.03219042488659</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035661001557138</v>
+        <v>1.046207512104079</v>
       </c>
       <c r="J7">
-        <v>1.039998289017749</v>
+        <v>1.027408631352948</v>
       </c>
       <c r="K7">
-        <v>1.044230265989762</v>
+        <v>1.03679179962364</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.053357617256698</v>
+        <v>1.04191238720519</v>
       </c>
       <c r="N7">
-        <v>1.017255502207028</v>
+        <v>1.012805952595172</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03402707432553</v>
+        <v>1.001403376446417</v>
       </c>
       <c r="D8">
-        <v>1.040693041899858</v>
+        <v>1.022056387447935</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.049655688676398</v>
+        <v>1.026500164583663</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035407737857265</v>
+        <v>1.044597953936387</v>
       </c>
       <c r="J8">
-        <v>1.039029747332365</v>
+        <v>1.022970947911754</v>
       </c>
       <c r="K8">
-        <v>1.04341150936168</v>
+        <v>1.032945654662994</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.052349584431731</v>
+        <v>1.037332751105104</v>
       </c>
       <c r="N8">
-        <v>1.016929094486636</v>
+        <v>1.011291010356744</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031491330769042</v>
+        <v>0.988758933263067</v>
       </c>
       <c r="D9">
-        <v>1.0388094547351</v>
+        <v>1.012889365036053</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.047444288267368</v>
+        <v>1.015989391901231</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034950952417049</v>
+        <v>1.041528694824427</v>
       </c>
       <c r="J9">
-        <v>1.037319018160429</v>
+        <v>1.014714984292162</v>
       </c>
       <c r="K9">
-        <v>1.041962894865205</v>
+        <v>1.025776726249109</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.05056997975612</v>
+        <v>1.02882827165406</v>
       </c>
       <c r="N9">
-        <v>1.016351718765317</v>
+        <v>1.008469169841558</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.0298008742181</v>
+        <v>0.9798472344532173</v>
       </c>
       <c r="D10">
-        <v>1.037553166176707</v>
+        <v>1.00645195100713</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.04597101217686</v>
+        <v>1.008618312940569</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034639378644349</v>
+        <v>1.039312501099457</v>
       </c>
       <c r="J10">
-        <v>1.036175819820159</v>
+        <v>1.008883885561002</v>
       </c>
       <c r="K10">
-        <v>1.040993224634334</v>
+        <v>1.020705682498138</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.049381359725967</v>
+        <v>1.022833685257365</v>
       </c>
       <c r="N10">
-        <v>1.015965324762559</v>
+        <v>1.00647423883427</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029068888802404</v>
+        <v>0.9758603276913614</v>
       </c>
       <c r="D11">
-        <v>1.0370090504436</v>
+        <v>1.003578890211669</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.045333306211328</v>
+        <v>1.005330740582395</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034502793572001</v>
+        <v>1.038309238810906</v>
       </c>
       <c r="J11">
-        <v>1.035680158302826</v>
+        <v>1.00627300684101</v>
       </c>
       <c r="K11">
-        <v>1.040572417307385</v>
+        <v>1.018433628041111</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.048866151035911</v>
+        <v>1.020152822302584</v>
       </c>
       <c r="N11">
-        <v>1.015797662312871</v>
+        <v>1.005580653294631</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028796995009158</v>
+        <v>0.974358884469698</v>
       </c>
       <c r="D12">
-        <v>1.036806921725546</v>
+        <v>1.002498073773931</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.045096468932327</v>
+        <v>1.004094302821158</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034451808767472</v>
+        <v>1.037929717836254</v>
       </c>
       <c r="J12">
-        <v>1.035495949863131</v>
+        <v>1.005289510820801</v>
       </c>
       <c r="K12">
-        <v>1.040415970525158</v>
+        <v>1.017577570615171</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.048674700329185</v>
+        <v>1.019143480591695</v>
       </c>
       <c r="N12">
-        <v>1.015735332255992</v>
+        <v>1.005244002474045</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028855317246384</v>
+        <v>0.9746818999712353</v>
       </c>
       <c r="D13">
-        <v>1.036850279917832</v>
+        <v>1.002730542600551</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.045147269740479</v>
+        <v>1.004360229740129</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034462756538898</v>
+        <v>1.038011442261642</v>
       </c>
       <c r="J13">
-        <v>1.03553546762176</v>
+        <v>1.005501107283838</v>
       </c>
       <c r="K13">
-        <v>1.040449535234369</v>
+        <v>1.017761757257064</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.048715770740392</v>
+        <v>1.019360613780733</v>
       </c>
       <c r="N13">
-        <v>1.015748704651866</v>
+        <v>1.005316433850216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029046414018527</v>
+        <v>0.9757366445336735</v>
       </c>
       <c r="D14">
-        <v>1.036992342825113</v>
+        <v>1.003489832394419</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.045313728450518</v>
+        <v>1.005228853491954</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03449858427241</v>
+        <v>1.038278009404861</v>
       </c>
       <c r="J14">
-        <v>1.035664933569389</v>
+        <v>1.006191994979488</v>
       </c>
       <c r="K14">
-        <v>1.040559488227259</v>
+        <v>1.018363117216914</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.048850327276939</v>
+        <v>1.020069670800455</v>
       </c>
       <c r="N14">
-        <v>1.015792511167055</v>
+        <v>1.005552923780912</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029164154781081</v>
+        <v>0.9763837468906251</v>
       </c>
       <c r="D15">
-        <v>1.037079869841832</v>
+        <v>1.003955825163678</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.045416293814308</v>
+        <v>1.005761987799406</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034520625661174</v>
+        <v>1.038441330901738</v>
       </c>
       <c r="J15">
-        <v>1.035744688863793</v>
+        <v>1.006615833846627</v>
       </c>
       <c r="K15">
-        <v>1.040627215318869</v>
+        <v>1.018732008924626</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.048933221501004</v>
+        <v>1.020504725115312</v>
       </c>
       <c r="N15">
-        <v>1.015819494816524</v>
+        <v>1.005697997628389</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029849453469988</v>
+        <v>0.9801090265523994</v>
       </c>
       <c r="D16">
-        <v>1.037589274537779</v>
+        <v>1.006640758374986</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.046013339533867</v>
+        <v>1.008834404837325</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034648408136846</v>
+        <v>1.039378139174149</v>
       </c>
       <c r="J16">
-        <v>1.036208701553042</v>
+        <v>1.009055284283274</v>
       </c>
       <c r="K16">
-        <v>1.041021132564893</v>
+        <v>1.020854809642847</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.049415541308217</v>
+        <v>1.023009747943419</v>
       </c>
       <c r="N16">
-        <v>1.015976444567515</v>
+        <v>1.006532894206867</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030279320885986</v>
+        <v>0.9824106314377268</v>
       </c>
       <c r="D17">
-        <v>1.037908774848606</v>
+        <v>1.00830149922071</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.046387912883178</v>
+        <v>1.010735386216628</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034728115256506</v>
+        <v>1.039953881606364</v>
       </c>
       <c r="J17">
-        <v>1.03649959055838</v>
+        <v>1.010561937096952</v>
       </c>
       <c r="K17">
-        <v>1.041267976517769</v>
+        <v>1.02216552205633</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.049717946407395</v>
+        <v>1.02455776755423</v>
       </c>
       <c r="N17">
-        <v>1.016074800962513</v>
+        <v>1.007048455648781</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030530054698378</v>
+        <v>0.9837408530571873</v>
       </c>
       <c r="D18">
-        <v>1.038095120977551</v>
+        <v>1.00926197565763</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.046606417580619</v>
+        <v>1.011835012346489</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034774445781127</v>
+        <v>1.040285514397624</v>
       </c>
       <c r="J18">
-        <v>1.036669198576869</v>
+        <v>1.011432503155691</v>
       </c>
       <c r="K18">
-        <v>1.041411866323969</v>
+        <v>1.02292272781484</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.04989428319701</v>
+        <v>1.02545253793601</v>
       </c>
       <c r="N18">
-        <v>1.01613213668732</v>
+        <v>1.007346320576612</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030615548375992</v>
+        <v>0.9841923810484309</v>
       </c>
       <c r="D19">
-        <v>1.038158657978274</v>
+        <v>1.009588103865815</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.046680925828802</v>
+        <v>1.01220842441307</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034790215931917</v>
+        <v>1.040397891210353</v>
       </c>
       <c r="J19">
-        <v>1.036727019912168</v>
+        <v>1.011727968902759</v>
       </c>
       <c r="K19">
-        <v>1.041460913745376</v>
+        <v>1.023179694501924</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.049954400833027</v>
+        <v>1.025756268780115</v>
       </c>
       <c r="N19">
-        <v>1.016151680937742</v>
+        <v>1.007447408419355</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030233200246141</v>
+        <v>0.9821649686384702</v>
       </c>
       <c r="D20">
-        <v>1.03787449683104</v>
+        <v>1.008124171556221</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.046347722389151</v>
+        <v>1.010532385044406</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034719580119043</v>
+        <v>1.039892545230086</v>
       </c>
       <c r="J20">
-        <v>1.036468387398879</v>
+        <v>1.010401145157509</v>
       </c>
       <c r="K20">
-        <v>1.04124150181606</v>
+        <v>1.022025655771939</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.049685506475168</v>
+        <v>1.024392529318305</v>
       </c>
       <c r="N20">
-        <v>1.016064251758036</v>
+        <v>1.006993437736953</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028990140838951</v>
+        <v>0.9754266261251332</v>
       </c>
       <c r="D21">
-        <v>1.036950509386921</v>
+        <v>1.003266623343069</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.045264709538396</v>
+        <v>1.004973494937389</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034488040826588</v>
+        <v>1.038199704136024</v>
       </c>
       <c r="J21">
-        <v>1.035626811772515</v>
+        <v>1.005988930565214</v>
       </c>
       <c r="K21">
-        <v>1.040527113681089</v>
+        <v>1.018186371701886</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.048810705917637</v>
+        <v>1.019861251598762</v>
       </c>
       <c r="N21">
-        <v>1.015779612696398</v>
+        <v>1.005483416263834</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028208569122662</v>
+        <v>0.971070469998512</v>
       </c>
       <c r="D22">
-        <v>1.036369446771681</v>
+        <v>1.000133179751776</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.044583979614691</v>
+        <v>1.001389459671741</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034341010570956</v>
+        <v>1.037095458248873</v>
       </c>
       <c r="J22">
-        <v>1.035097114529385</v>
+        <v>1.003135097820863</v>
       </c>
       <c r="K22">
-        <v>1.0400771383627</v>
+        <v>1.015701998786896</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.048260225574171</v>
+        <v>1.016933441256075</v>
       </c>
       <c r="N22">
-        <v>1.015600343589526</v>
+        <v>1.004506474023738</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028622896390575</v>
+        <v>0.9733915366381539</v>
       </c>
       <c r="D23">
-        <v>1.036677489863368</v>
+        <v>1.001802069612723</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.044944828093025</v>
+        <v>1.003298171000948</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034419091717902</v>
+        <v>1.037684731066131</v>
       </c>
       <c r="J23">
-        <v>1.035377970694028</v>
+        <v>1.004655802250992</v>
       </c>
       <c r="K23">
-        <v>1.040315755655013</v>
+        <v>1.017025925545437</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.048552089041011</v>
+        <v>1.01849326857089</v>
       </c>
       <c r="N23">
-        <v>1.015695406460849</v>
+        <v>1.005027072441748</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030254040179531</v>
+        <v>0.9822760108925828</v>
       </c>
       <c r="D24">
-        <v>1.037889985631781</v>
+        <v>1.00820432359615</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.046365882674108</v>
+        <v>1.010624140852826</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034723437278591</v>
+        <v>1.039920273417825</v>
       </c>
       <c r="J24">
-        <v>1.036482486956857</v>
+        <v>1.010473825517266</v>
       </c>
       <c r="K24">
-        <v>1.04125346487245</v>
+        <v>1.022088877869021</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.04970016484162</v>
+        <v>1.024467218536101</v>
       </c>
       <c r="N24">
-        <v>1.016069018594149</v>
+        <v>1.00701830676157</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032146871912103</v>
+        <v>0.9921084700166323</v>
       </c>
       <c r="D25">
-        <v>1.039296508448631</v>
+        <v>1.015314120958996</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.048015815250673</v>
+        <v>1.018767811018533</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035070285850322</v>
+        <v>1.042351097135006</v>
       </c>
       <c r="J25">
-        <v>1.037761760746619</v>
+        <v>1.016904365878528</v>
       </c>
       <c r="K25">
-        <v>1.042338089592698</v>
+        <v>1.027679266968063</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.051030442176041</v>
+        <v>1.031081602998357</v>
       </c>
       <c r="N25">
-        <v>1.016501244876122</v>
+        <v>1.009217843289199</v>
       </c>
     </row>
   </sheetData>
